--- a/biology/Médecine/Gérard_Haddad/Gérard_Haddad.xlsx
+++ b/biology/Médecine/Gérard_Haddad/Gérard_Haddad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Haddad</t>
+          <t>Gérard_Haddad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Haddad, d'origine séfarade, né  le 21 juin 1940 à Tunis[1], est un ingénieur agronome, formé en France, ainsi qu'un médecin psychiatre, psychanalyste français, et essayiste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Haddad, d'origine séfarade, né  le 21 juin 1940 à Tunis, est un ingénieur agronome, formé en France, ainsi qu'un médecin psychiatre, psychanalyste français, et essayiste.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Haddad</t>
+          <t>Gérard_Haddad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Haddad rencontre Jacques Lacan en 1969 et entame avec lui une psychanalyse de douze ans qu'il a relatée dans son livre Le Jour où Lacan m'a adopté, un des rares témoignages relatant une psychanalyse avec Lacan, les deux autres étant Une saison chez Lacan de Pierre Rey, récit d'une cure qui dura dix ans ainsi que "Pourquoi Lacan" de Betty Milan.
-Au cours de sa cure, il entreprend des études de médecine et de psychiatrie, dans le but de devenir lui-même psychanalyste[2].
+Au cours de sa cure, il entreprend des études de médecine et de psychiatrie, dans le but de devenir lui-même psychanalyste.
 Durant ce cheminement, il passe aussi d'un marxisme athée à la force du sentiment religieux qui l'habite, renouant avec le judaïsme et l'étudiant des textes fondateurs qu'il était depuis son enfance, principalement du Talmud. Avec l'aide du rabbin de Sarcelles Yehochoua Israël, il va l'étudier dans sa relation avec les maladies mentales ce qui va l'aider et l'inspirer pour sa thèse de médecine L'Enfant illégitime.   
-Sa rencontre avec Yeshayahou Leibowitz, en Israël, influence également son parcours[1].
+Sa rencontre avec Yeshayahou Leibowitz, en Israël, influence également son parcours.
 Avec son épouse, Antonietta Haddad Pegolo, Gérard Haddad a écrit Freud en Italie et Le Péché originel de la psychanalyse.
-En 2003, il reçoit le prix Œdipe le Salon[3].
-C'est un critique du transhumanisme[4].
+En 2003, il reçoit le prix Œdipe le Salon.
+C'est un critique du transhumanisme.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Haddad</t>
+          <t>Gérard_Haddad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Haddad a une œuvre d'écrivain, de traducteur de l'hébreu et d'éditeur.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Haddad</t>
+          <t>Gérard_Haddad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Essais
-L'Enfant illégitime : Sources talmudiques de la psychanalyse, Paris, Hachette Littératures, 1981
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Enfant illégitime : Sources talmudiques de la psychanalyse, Paris, Hachette Littératures, 1981
 Manger le livre, Paris, Grasset, 1984
 Les Biblioclastes, Paris, Grasset, 1990 ; rééd. sous le titre Les Folies millénaristes, Librairie générale française, 2002
 (avec Antonietta Haddad) Freud en Italie : Psychanalyse du voyage, Paris, Albin Michel, 1994
@@ -598,12 +619,80 @@
 Dans la main droite de Dieu : Psychanalyse du fanatisme, Paris, Premier Parallèle, 2015
 Le complexe de Caïn : terrorisme, haine de l'autre et rivalité fraternelle, Paris, Premier Parallèle, 2017
 Qohélet et la question du désir, illustrations de Sophie Morgaine, Cent Mille Milliards, 2019
-À l'origine de la violence : d'Oedipe à Cain, une erreur de Freud, Paris, Salvator, 2021
-Récits
-Moshé Gaash, Comment faire son alyah en 20 leçons : voyage en Terre promise (récit), Paris, Éditions du Seuil, coll. « Points Virgule » (no 53), 1987, 165 p. (ISBN 2-02-009621-8)  — Réédité en 2008 sous le titre Hello Goodbye, du nom du film Hello Goodbye, réalisé en 2008 par Graham Guit et inspiré de cet ouvrage. Moshé Gaash est le nom de plume de Gérard Haddad.
-Monsieur Jean, Hémisphères, 2017
-Traductions de l'hébreu
-Œuvres de Yeshayahou Leibowitz :
+À l'origine de la violence : d'Oedipe à Cain, une erreur de Freud, Paris, Salvator, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Haddad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Haddad</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Moshé Gaash, Comment faire son alyah en 20 leçons : voyage en Terre promise (récit), Paris, Éditions du Seuil, coll. « Points Virgule » (no 53), 1987, 165 p. (ISBN 2-02-009621-8)  — Réédité en 2008 sous le titre Hello Goodbye, du nom du film Hello Goodbye, réalisé en 2008 par Graham Guit et inspiré de cet ouvrage. Moshé Gaash est le nom de plume de Gérard Haddad.
+Monsieur Jean, Hémisphères, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Haddad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Haddad</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions de l'hébreu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Œuvres de Yeshayahou Leibowitz :
 Israël et le judaïsme, ma part de vérité, Paris, Desclée de Brouwer, 1993
 Brèves leçons bibliques, Paris, Desclée de Brouwer, 1995
 Peuple, Terre, État, Paris, Plon, 1995
